--- a/public/sample/Import_Teacher_Template.xlsx
+++ b/public/sample/Import_Teacher_Template.xlsx
@@ -28,10 +28,10 @@
     <t>Password: Nhập mật khẩu đăng nhập của giáo viên, không được bỏ trống</t>
   </si>
   <si>
-    <t>User Name *</t>
+    <t>User name *</t>
   </si>
   <si>
-    <t>Full Name *</t>
+    <t>Full name *</t>
   </si>
   <si>
     <t>Password *</t>
@@ -51,13 +51,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,54 +74,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -205,35 +205,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,19 +241,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,163 +319,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,13 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +468,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -539,18 +515,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,128 +547,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,17 +679,17 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +1012,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1080,11 +1067,8 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
-      <c r="B8"/>
-      <c r="C8"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="4:5">
